--- a/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25CE9A0-0F15-4C8D-8090-0AB6A577B577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC0575-9998-4F1C-AABD-DF3A3D10BBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jdk1.8_212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HDFS HA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +135,6 @@
     <t>Hive</t>
   </si>
   <si>
-    <t>Hive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +160,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +336,39 @@
   </si>
   <si>
     <t>退役原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL5.7.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper3.5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK8u212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive 3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka2.11-2.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azkaban2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbase2.0.5
+phoenix-5.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +502,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACD25B0-B463-42B0-B804-743024FEE549}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -785,20 +805,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -826,34 +846,34 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -861,11 +881,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -873,7 +893,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -883,11 +903,11 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -895,11 +915,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -913,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -946,19 +966,19 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,29 +996,36 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:B5"/>
@@ -1007,13 +1034,6 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,12 +1045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F1261-3E05-4A47-8AC0-EC477236A758}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="5" width="22.125" customWidth="1"/>
@@ -1041,31 +1062,31 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1077,7 +1098,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
@@ -1093,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1115,65 +1136,65 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
@@ -1183,13 +1204,13 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
@@ -1198,16 +1219,16 @@
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1216,14 +1237,14 @@
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
@@ -1233,13 +1254,13 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
@@ -1247,51 +1268,51 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1301,75 +1322,75 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
+      <c r="A17" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1379,29 +1400,29 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1409,31 +1430,24 @@
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="A3:B3"/>
@@ -1448,8 +1462,16 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC0575-9998-4F1C-AABD-DF3A3D10BBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07FEE2F-E6F1-431E-A2DD-67E90D9909B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,11 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户root
-密码111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/opt/module/hive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +364,11 @@
   <si>
     <t>Hbase2.0.5
 phoenix-5.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户root
+密码000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -846,34 +846,34 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -881,11 +881,11 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -915,11 +915,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>44</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
@@ -1290,7 +1290,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
@@ -1335,12 +1335,12 @@
         <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
@@ -1357,12 +1357,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
@@ -1377,7 +1377,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
@@ -1443,7 +1443,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07FEE2F-E6F1-431E-A2DD-67E90D9909B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6DBC9-0260-49C3-8CF3-1ACFED04C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,26 @@
   <si>
     <t>用户root
 密码000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flume 1.9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/module/flume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ganglia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -473,11 +493,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,6 +551,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,6 +572,18 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +883,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
@@ -822,20 +901,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -850,10 +929,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
@@ -868,65 +947,65 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -946,7 +1025,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1043,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
@@ -982,7 +1061,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1000,7 +1079,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1043,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F1261-3E05-4A47-8AC0-EC477236A758}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1085,22 +1164,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,10 +1220,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1163,10 +1242,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2"/>
@@ -1177,16 +1256,16 @@
         <v>16</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1197,12 +1276,12 @@
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1213,11 +1292,11 @@
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1231,12 +1310,12 @@
         <v>19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
@@ -1247,12 +1326,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1263,14 +1342,14 @@
         <v>22</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1289,7 +1368,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1301,13 +1380,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1317,14 +1396,14 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1339,130 +1418,167 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B22"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G6:G11"/>
     <mergeCell ref="H6:H11"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>

--- a/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
+++ b/03_Framework/00_环境搭建/集群节点规划--VMware第2版.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LearningBigData\03_Framework\00_环境搭建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6DBC9-0260-49C3-8CF3-1ACFED04C70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308CF66-90D2-416D-800A-D860D98B8C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="38640" windowHeight="20865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="2" r:id="rId1"/>
     <sheet name="服务清单" sheetId="3" r:id="rId2"/>
+    <sheet name="性能基准测试" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -600,6 +601,404 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13620750" cy="3076576"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F20D8D-DD63-4D12-8DEB-EE7E41798944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="428625"/>
+          <a:ext cx="13620750" cy="3076576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>hadoop jar /opt/module/hadoop/share/hadoop/mapreduce/hadoop-mapreduce-client-jobclient-3.1.3-tests.jar TestDFSIO -write -nrFiles 100 -fileSize 128MB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,496 INFO sasl.SaslDataTransferClient: SASL encryption trust check: localHostTrusted = false, remoteHostTrusted = false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,512 INFO fs.TestDFSIO: ----- TestDFSIO ----- : write</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,512 INFO fs.TestDFSIO:             Date &amp; time: Mon Sep 20 00:30:35 CST 2021</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:         Number of files: 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:  Total MBytes processed: 12800</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:       Throughput mb/sec: 22.92</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:  Average IO rate mb/sec: 25.39</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:   IO rate std deviation: 7.67</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO:      Test exec time sec: 124.78</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:30:35,513 INFO fs.TestDFSIO: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13620750" cy="3076576"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA615068-78B3-46DA-9AE6-BB8EEF5526D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3962400"/>
+          <a:ext cx="13620750" cy="3076576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hadoop jar /opt/module/hadoop/share/hadoop/mapreduce/hadoop-mapreduce-client-jobclient-3.1.3-tests.jar TestDFSIO -read -nrFiles 100 -fileSize 128MB</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,553 INFO sasl.SaslDataTransferClient: SASL encryption trust check: localHostTrusted = false, remoteHostTrusted = false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,565 INFO fs.TestDFSIO: ----- TestDFSIO ----- : read</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:             Date &amp; time: Mon Sep 20 00:35:35 CST 2021</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:         Number of files: 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:  Total MBytes processed: 12800</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:       Throughput mb/sec: 39.53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:  Average IO rate mb/sec: 252.47</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:   IO rate std deviation: 313.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:      Test exec time sec: 87.52</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>2021-09-20 00:35:35,566 INFO fs.TestDFSIO:</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13620750" cy="3076576"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB81A0AF-C29B-44F3-B38E-0115F12F41AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7181850"/>
+          <a:ext cx="13620750" cy="3076576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hadoop jar /opt/module/hadoop/share/hadoop/mapreduce/hadoop-mapreduce-examples-3.1.3.jar randomwriter random-data</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hadoop jar /opt/module/hadoop/share/hadoop/mapreduce/hadoop-mapreduce-examples-3.1.3.jar sort random-data sorted-data</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,13 +1497,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:B5"/>
@@ -1113,6 +1505,13 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F1261-3E05-4A47-8AC0-EC477236A758}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1563,6 +1962,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="A3:B3"/>
@@ -1578,16 +1984,26 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B562AD0-15B4-4DB6-8BA8-587B228B3048}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>